--- a/Code/datasets/Twitters_19thCongressMembers.xlsx
+++ b/Code/datasets/Twitters_19thCongressMembers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Ambiente de Trabalho\tese\Code\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA240FE-09FC-47CC-BF63-EB6FE1A41466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404ABBDB-32CD-4298-B1BE-A0E65C3244F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F8C0650F-6D5B-4461-AA3F-5F73C03E0D01}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3936" uniqueCount="1272">
   <si>
     <t>Name</t>
   </si>
@@ -3840,9 +3840,6 @@
   </si>
   <si>
     <t>"@RepRyanZinke"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>"@RepFischbach"</t>
@@ -3864,7 +3861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3892,43 +3889,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3942,9 +3914,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3961,23 +3933,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4324,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712D87A-21AD-4759-B6E5-0245C6DE7A64}">
-  <dimension ref="A1:V546"/>
+  <dimension ref="A1:K546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M535" sqref="M535"/>
+    <sheetView tabSelected="1" topLeftCell="A517" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L536" sqref="L536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4339,9 +4309,7 @@
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="36.109375" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4366,7 +4334,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4392,7 +4360,7 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4418,7 +4386,7 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4444,7 +4412,7 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4470,7 +4438,7 @@
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4496,7 +4464,7 @@
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4522,7 +4490,7 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4548,7 +4516,7 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4574,7 +4542,7 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4600,7 +4568,7 @@
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4626,7 +4594,7 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4652,7 +4620,7 @@
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4678,7 +4646,7 @@
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4704,7 +4672,7 @@
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4730,7 +4698,7 @@
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4756,7 +4724,7 @@
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4782,7 +4750,7 @@
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4808,7 +4776,7 @@
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4834,7 +4802,7 @@
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4860,7 +4828,7 @@
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4886,7 +4854,7 @@
       <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4912,7 +4880,7 @@
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4938,7 +4906,7 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4964,7 +4932,7 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4990,7 +4958,7 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5016,7 +4984,7 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5042,7 +5010,7 @@
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5068,7 +5036,7 @@
       <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5094,7 +5062,7 @@
       <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5120,7 +5088,7 @@
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5146,7 +5114,7 @@
       <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5172,7 +5140,7 @@
       <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5198,7 +5166,7 @@
       <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5224,7 +5192,7 @@
       <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5250,7 +5218,7 @@
       <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5276,7 +5244,7 @@
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5302,7 +5270,7 @@
       <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5328,7 +5296,7 @@
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5354,7 +5322,7 @@
       <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5380,7 +5348,7 @@
       <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5406,7 +5374,7 @@
       <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5432,7 +5400,7 @@
       <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5458,7 +5426,7 @@
       <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5484,7 +5452,7 @@
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5510,7 +5478,7 @@
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5536,7 +5504,7 @@
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5562,7 +5530,7 @@
       <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5588,11 +5556,11 @@
       <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>166</v>
       </c>
@@ -5614,11 +5582,11 @@
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>168</v>
       </c>
@@ -5640,11 +5608,11 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
@@ -5666,11 +5634,11 @@
       <c r="G51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>173</v>
       </c>
@@ -5692,11 +5660,11 @@
       <c r="G52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
@@ -5718,11 +5686,11 @@
       <c r="G53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
@@ -5744,11 +5712,11 @@
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>180</v>
       </c>
@@ -5770,11 +5738,11 @@
       <c r="G55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>182</v>
       </c>
@@ -5796,11 +5764,11 @@
       <c r="G56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>184</v>
       </c>
@@ -5822,11 +5790,11 @@
       <c r="G57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>186</v>
       </c>
@@ -5848,11 +5816,11 @@
       <c r="G58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>188</v>
       </c>
@@ -5874,11 +5842,11 @@
       <c r="G59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>190</v>
       </c>
@@ -5900,11 +5868,11 @@
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>192</v>
       </c>
@@ -5926,14 +5894,11 @@
       <c r="G61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="M61" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>195</v>
       </c>
@@ -5955,11 +5920,11 @@
       <c r="G62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>199</v>
       </c>
@@ -5981,11 +5946,11 @@
       <c r="G63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>201</v>
       </c>
@@ -6007,11 +5972,11 @@
       <c r="G64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>203</v>
       </c>
@@ -6033,11 +5998,11 @@
       <c r="G65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>206</v>
       </c>
@@ -6059,11 +6024,11 @@
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>208</v>
       </c>
@@ -6085,11 +6050,11 @@
       <c r="G67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
@@ -6111,11 +6076,11 @@
       <c r="G68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>214</v>
       </c>
@@ -6137,11 +6102,11 @@
       <c r="G69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
@@ -6163,11 +6128,11 @@
       <c r="G70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>220</v>
       </c>
@@ -6189,11 +6154,11 @@
       <c r="G71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>223</v>
       </c>
@@ -6215,11 +6180,11 @@
       <c r="G72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>225</v>
       </c>
@@ -6241,11 +6206,11 @@
       <c r="G73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -6267,11 +6232,11 @@
       <c r="G74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>229</v>
       </c>
@@ -6293,11 +6258,11 @@
       <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>232</v>
       </c>
@@ -6319,12 +6284,11 @@
       <c r="G76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>235</v>
       </c>
@@ -6346,12 +6310,11 @@
       <c r="G77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>237</v>
       </c>
@@ -6373,11 +6336,11 @@
       <c r="G78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>240</v>
       </c>
@@ -6399,12 +6362,11 @@
       <c r="G79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -6426,7 +6388,7 @@
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="8" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6452,7 +6414,7 @@
       <c r="G81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="8" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6478,7 +6440,7 @@
       <c r="G82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6504,7 +6466,7 @@
       <c r="G83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6530,7 +6492,7 @@
       <c r="G84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6556,7 +6518,7 @@
       <c r="G85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6582,7 +6544,7 @@
       <c r="G86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6608,7 +6570,7 @@
       <c r="G87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6634,7 +6596,7 @@
       <c r="G88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6660,7 +6622,7 @@
       <c r="G89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6686,7 +6648,7 @@
       <c r="G90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="8" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6712,7 +6674,7 @@
       <c r="G91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="8" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6738,7 +6700,7 @@
       <c r="G92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="8" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6764,7 +6726,7 @@
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="8" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6790,7 +6752,7 @@
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="8" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6816,7 +6778,7 @@
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="8" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6842,7 +6804,7 @@
       <c r="G96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="8" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6868,7 +6830,7 @@
       <c r="G97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="8" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6894,7 +6856,7 @@
       <c r="G98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="8" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6920,7 +6882,7 @@
       <c r="G99" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="8" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6946,7 +6908,7 @@
       <c r="G100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="8" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6972,7 +6934,7 @@
       <c r="G101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6998,7 +6960,7 @@
       <c r="G102" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="8" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7024,7 +6986,7 @@
       <c r="G103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="8" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7050,7 +7012,7 @@
       <c r="G104" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="8" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7076,7 +7038,7 @@
       <c r="G105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="8" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7102,7 +7064,7 @@
       <c r="G106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="8" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7128,7 +7090,7 @@
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="8" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7154,7 +7116,7 @@
       <c r="G108" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="8" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7180,7 +7142,7 @@
       <c r="G109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="8" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7206,7 +7168,7 @@
       <c r="G110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="8" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7232,7 +7194,7 @@
       <c r="G111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7258,7 +7220,7 @@
       <c r="G112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="8" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7284,7 +7246,7 @@
       <c r="G113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="8" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7310,7 +7272,7 @@
       <c r="G114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="8" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7336,7 +7298,7 @@
       <c r="G115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7362,7 +7324,7 @@
       <c r="G116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -7388,7 +7350,7 @@
       <c r="G117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="8" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7414,7 +7376,7 @@
       <c r="G118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7440,7 +7402,7 @@
       <c r="G119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="8" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7466,7 +7428,7 @@
       <c r="G120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="8" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7492,7 +7454,7 @@
       <c r="G121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7518,7 +7480,7 @@
       <c r="G122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H122" s="8" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7544,7 +7506,7 @@
       <c r="G123" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H123" s="8" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7570,7 +7532,7 @@
       <c r="G124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7596,7 +7558,7 @@
       <c r="G125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="8" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7622,7 +7584,7 @@
       <c r="G126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="8" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7648,7 +7610,7 @@
       <c r="G127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H127" s="7" t="s">
+      <c r="H127" s="8" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7674,7 +7636,7 @@
       <c r="G128" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="H128" s="8" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7700,7 +7662,7 @@
       <c r="G129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="H129" s="8" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7726,7 +7688,7 @@
       <c r="G130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7752,7 +7714,7 @@
       <c r="G131" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H131" s="8" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7778,7 +7740,7 @@
       <c r="G132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7804,8 +7766,8 @@
       <c r="G133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>1270</v>
+      <c r="H133" s="8" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -7830,7 +7792,7 @@
       <c r="G134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7856,7 +7818,7 @@
       <c r="G135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="8" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7882,7 +7844,7 @@
       <c r="G136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H136" s="8" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7908,7 +7870,7 @@
       <c r="G137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="8" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7934,7 +7896,7 @@
       <c r="G138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="8" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7960,7 +7922,7 @@
       <c r="G139" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H139" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7986,7 +7948,7 @@
       <c r="G140" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="8" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8012,7 +7974,7 @@
       <c r="G141" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="8" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8038,7 +8000,7 @@
       <c r="G142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="8" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8064,7 +8026,7 @@
       <c r="G143" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H143" s="8" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8090,7 +8052,7 @@
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="8" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8116,7 +8078,7 @@
       <c r="G145" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="7" t="s">
+      <c r="H145" s="8" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8142,7 +8104,7 @@
       <c r="G146" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="8" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8168,7 +8130,7 @@
       <c r="G147" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H147" s="8" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8194,7 +8156,7 @@
       <c r="G148" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H148" s="8" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8220,7 +8182,7 @@
       <c r="G149" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="8" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8246,7 +8208,7 @@
       <c r="G150" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="8" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8272,7 +8234,7 @@
       <c r="G151" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H151" s="7" t="s">
+      <c r="H151" s="8" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8298,7 +8260,7 @@
       <c r="G152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="8" t="s">
         <v>412</v>
       </c>
     </row>
@@ -8324,8 +8286,8 @@
       <c r="G153" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H153" s="7" t="s">
-        <v>1268</v>
+      <c r="H153" s="8" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -8350,7 +8312,7 @@
       <c r="G154" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="8" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8376,7 +8338,7 @@
       <c r="G155" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8402,7 +8364,7 @@
       <c r="G156" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="8" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8428,7 +8390,7 @@
       <c r="G157" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="8" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8454,7 +8416,7 @@
       <c r="G158" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="8" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8480,7 +8442,7 @@
       <c r="G159" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H159" s="8" t="s">
         <v>425</v>
       </c>
     </row>
@@ -8506,7 +8468,7 @@
       <c r="G160" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="8" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8532,7 +8494,7 @@
       <c r="G161" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="8" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8558,7 +8520,7 @@
       <c r="G162" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H162" s="8" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8584,7 +8546,7 @@
       <c r="G163" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="8" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8610,7 +8572,7 @@
       <c r="G164" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="8" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8636,7 +8598,7 @@
       <c r="G165" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H165" s="7" t="s">
+      <c r="H165" s="8" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8662,7 +8624,7 @@
       <c r="G166" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H166" s="8" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8688,7 +8650,7 @@
       <c r="G167" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H167" s="8" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8714,7 +8676,7 @@
       <c r="G168" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="8" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8740,7 +8702,7 @@
       <c r="G169" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="8" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8766,7 +8728,7 @@
       <c r="G170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H170" s="8" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8792,7 +8754,7 @@
       <c r="G171" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H171" s="7" t="s">
+      <c r="H171" s="8" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8818,7 +8780,7 @@
       <c r="G172" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H172" s="8" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8844,7 +8806,7 @@
       <c r="G173" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" s="8" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8870,7 +8832,7 @@
       <c r="G174" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H174" s="8" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8896,7 +8858,7 @@
       <c r="G175" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H175" s="8" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8922,7 +8884,7 @@
       <c r="G176" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="8" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8948,7 +8910,7 @@
       <c r="G177" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H177" s="8" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8974,7 +8936,7 @@
       <c r="G178" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="8" t="s">
         <v>467</v>
       </c>
     </row>
@@ -9000,7 +8962,7 @@
       <c r="G179" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="8" t="s">
         <v>469</v>
       </c>
     </row>
@@ -9026,7 +8988,7 @@
       <c r="G180" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H180" s="8" t="s">
         <v>471</v>
       </c>
     </row>
@@ -9052,7 +9014,7 @@
       <c r="G181" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H181" s="7" t="s">
+      <c r="H181" s="8" t="s">
         <v>473</v>
       </c>
     </row>
@@ -9078,7 +9040,7 @@
       <c r="G182" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H182" s="8" t="s">
         <v>475</v>
       </c>
     </row>
@@ -9104,7 +9066,7 @@
       <c r="G183" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="8" t="s">
         <v>477</v>
       </c>
     </row>
@@ -9130,7 +9092,7 @@
       <c r="G184" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H184" s="8" t="s">
         <v>479</v>
       </c>
     </row>
@@ -9156,7 +9118,7 @@
       <c r="G185" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H185" s="7" t="s">
+      <c r="H185" s="8" t="s">
         <v>481</v>
       </c>
     </row>
@@ -9182,7 +9144,7 @@
       <c r="G186" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="8" t="s">
         <v>483</v>
       </c>
     </row>
@@ -9208,7 +9170,7 @@
       <c r="G187" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="H187" s="8" t="s">
         <v>486</v>
       </c>
     </row>
@@ -9234,7 +9196,7 @@
       <c r="G188" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" s="8" t="s">
         <v>488</v>
       </c>
     </row>
@@ -9260,7 +9222,7 @@
       <c r="G189" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H189" s="7" t="s">
+      <c r="H189" s="8" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9286,7 +9248,7 @@
       <c r="G190" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="7" t="s">
+      <c r="H190" s="8" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9312,7 +9274,7 @@
       <c r="G191" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H191" s="8" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9338,7 +9300,7 @@
       <c r="G192" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H192" s="8" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9364,7 +9326,7 @@
       <c r="G193" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="7" t="s">
+      <c r="H193" s="8" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9390,7 +9352,7 @@
       <c r="G194" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H194" s="8" t="s">
         <v>503</v>
       </c>
     </row>
@@ -9416,7 +9378,7 @@
       <c r="G195" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="H195" s="8" t="s">
         <v>506</v>
       </c>
     </row>
@@ -9442,7 +9404,7 @@
       <c r="G196" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H196" s="8" t="s">
         <v>508</v>
       </c>
     </row>
@@ -9468,7 +9430,7 @@
       <c r="G197" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="H197" s="8" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9494,7 +9456,7 @@
       <c r="G198" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" s="8" t="s">
         <v>513</v>
       </c>
     </row>
@@ -9520,7 +9482,7 @@
       <c r="G199" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H199" s="8" t="s">
         <v>515</v>
       </c>
     </row>
@@ -9546,7 +9508,7 @@
       <c r="G200" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="H200" s="8" t="s">
         <v>517</v>
       </c>
     </row>
@@ -9572,7 +9534,7 @@
       <c r="G201" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H201" s="8" t="s">
         <v>519</v>
       </c>
     </row>
@@ -9598,7 +9560,7 @@
       <c r="G202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H202" s="8" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9624,7 +9586,7 @@
       <c r="G203" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="H203" s="8" t="s">
         <v>524</v>
       </c>
     </row>
@@ -9650,7 +9612,7 @@
       <c r="G204" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H204" s="8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9676,7 +9638,7 @@
       <c r="G205" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H205" s="8" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9702,7 +9664,7 @@
       <c r="G206" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H206" s="8" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9728,7 +9690,7 @@
       <c r="G207" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H207" s="8" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9754,7 +9716,7 @@
       <c r="G208" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H208" s="8" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9780,7 +9742,7 @@
       <c r="G209" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H209" s="7" t="s">
+      <c r="H209" s="8" t="s">
         <v>536</v>
       </c>
     </row>
@@ -9806,7 +9768,7 @@
       <c r="G210" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H210" s="7" t="s">
+      <c r="H210" s="8" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9832,7 +9794,7 @@
       <c r="G211" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H211" s="7" t="s">
+      <c r="H211" s="8" t="s">
         <v>540</v>
       </c>
     </row>
@@ -9858,7 +9820,7 @@
       <c r="G212" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H212" s="8" t="s">
         <v>543</v>
       </c>
     </row>
@@ -9884,7 +9846,7 @@
       <c r="G213" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H213" s="7" t="s">
+      <c r="H213" s="8" t="s">
         <v>545</v>
       </c>
     </row>
@@ -9910,7 +9872,7 @@
       <c r="G214" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H214" s="8" t="s">
         <v>549</v>
       </c>
     </row>
@@ -9936,7 +9898,7 @@
       <c r="G215" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H215" s="7" t="s">
+      <c r="H215" s="8" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9962,7 +9924,7 @@
       <c r="G216" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H216" s="7" t="s">
+      <c r="H216" s="8" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9988,7 +9950,7 @@
       <c r="G217" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H217" s="7" t="s">
+      <c r="H217" s="8" t="s">
         <v>556</v>
       </c>
     </row>
@@ -10014,7 +9976,7 @@
       <c r="G218" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H218" s="7" t="s">
+      <c r="H218" s="8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10040,7 +10002,7 @@
       <c r="G219" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H219" s="7" t="s">
+      <c r="H219" s="8" t="s">
         <v>560</v>
       </c>
     </row>
@@ -10066,7 +10028,7 @@
       <c r="G220" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H220" s="7" t="s">
+      <c r="H220" s="8" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10092,7 +10054,7 @@
       <c r="G221" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H221" s="7" t="s">
+      <c r="H221" s="8" t="s">
         <v>564</v>
       </c>
     </row>
@@ -10118,7 +10080,7 @@
       <c r="G222" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H222" s="7" t="s">
+      <c r="H222" s="8" t="s">
         <v>567</v>
       </c>
     </row>
@@ -10144,7 +10106,7 @@
       <c r="G223" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H223" s="8" t="s">
         <v>569</v>
       </c>
     </row>
@@ -10170,7 +10132,7 @@
       <c r="G224" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H224" s="7" t="s">
+      <c r="H224" s="8" t="s">
         <v>572</v>
       </c>
     </row>
@@ -10196,7 +10158,7 @@
       <c r="G225" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H225" s="7" t="s">
+      <c r="H225" s="8" t="s">
         <v>574</v>
       </c>
     </row>
@@ -10222,7 +10184,7 @@
       <c r="G226" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="8" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10248,7 +10210,7 @@
       <c r="G227" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H227" s="8" t="s">
         <v>579</v>
       </c>
     </row>
@@ -10274,7 +10236,7 @@
       <c r="G228" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="8" t="s">
         <v>581</v>
       </c>
     </row>
@@ -10300,7 +10262,7 @@
       <c r="G229" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H229" s="7" t="s">
+      <c r="H229" s="8" t="s">
         <v>583</v>
       </c>
     </row>
@@ -10326,7 +10288,7 @@
       <c r="G230" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H230" s="7" t="s">
+      <c r="H230" s="8" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10352,7 +10314,7 @@
       <c r="G231" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="7" t="s">
+      <c r="H231" s="8" t="s">
         <v>587</v>
       </c>
     </row>
@@ -10378,7 +10340,7 @@
       <c r="G232" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H232" s="8" t="s">
         <v>589</v>
       </c>
     </row>
@@ -10404,8 +10366,8 @@
       <c r="G233" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H233" s="7" t="s">
-        <v>1271</v>
+      <c r="H233" s="8" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -10430,7 +10392,7 @@
       <c r="G234" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H234" s="7" t="s">
+      <c r="H234" s="8" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10456,7 +10418,7 @@
       <c r="G235" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H235" s="7" t="s">
+      <c r="H235" s="8" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10482,7 +10444,7 @@
       <c r="G236" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="8" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10508,7 +10470,7 @@
       <c r="G237" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="7" t="s">
+      <c r="H237" s="8" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10534,7 +10496,7 @@
       <c r="G238" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="8" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10560,7 +10522,7 @@
       <c r="G239" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="8" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10586,7 +10548,7 @@
       <c r="G240" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="8" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10612,7 +10574,7 @@
       <c r="G241" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H241" s="8" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10638,7 +10600,7 @@
       <c r="G242" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="8" t="s">
         <v>610</v>
       </c>
     </row>
@@ -10664,7 +10626,7 @@
       <c r="G243" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H243" s="7" t="s">
+      <c r="H243" s="8" t="s">
         <v>612</v>
       </c>
     </row>
@@ -10690,7 +10652,7 @@
       <c r="G244" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H244" s="8" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10716,7 +10678,7 @@
       <c r="G245" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H245" s="8" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10742,7 +10704,7 @@
       <c r="G246" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H246" s="7" t="s">
+      <c r="H246" s="8" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10768,7 +10730,7 @@
       <c r="G247" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H247" s="7" t="s">
+      <c r="H247" s="8" t="s">
         <v>621</v>
       </c>
     </row>
@@ -10794,7 +10756,7 @@
       <c r="G248" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H248" s="8" t="s">
         <v>623</v>
       </c>
     </row>
@@ -10820,7 +10782,7 @@
       <c r="G249" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H249" s="8" t="s">
         <v>625</v>
       </c>
     </row>
@@ -10846,7 +10808,7 @@
       <c r="G250" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="H250" s="8" t="s">
         <v>627</v>
       </c>
     </row>
@@ -10872,7 +10834,7 @@
       <c r="G251" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="H251" s="8" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10898,7 +10860,7 @@
       <c r="G252" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="H252" s="8" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10924,7 +10886,7 @@
       <c r="G253" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H253" s="7" t="s">
+      <c r="H253" s="8" t="s">
         <v>633</v>
       </c>
     </row>
@@ -10950,7 +10912,7 @@
       <c r="G254" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H254" s="7" t="s">
+      <c r="H254" s="8" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10976,7 +10938,7 @@
       <c r="G255" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H255" s="7" t="s">
+      <c r="H255" s="8" t="s">
         <v>637</v>
       </c>
     </row>
@@ -11002,7 +10964,7 @@
       <c r="G256" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="H256" s="8" t="s">
         <v>640</v>
       </c>
     </row>
@@ -11028,7 +10990,7 @@
       <c r="G257" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="H257" s="8" t="s">
         <v>642</v>
       </c>
     </row>
@@ -11054,7 +11016,7 @@
       <c r="G258" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H258" s="7" t="s">
+      <c r="H258" s="8" t="s">
         <v>644</v>
       </c>
     </row>
@@ -11080,7 +11042,7 @@
       <c r="G259" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H259" s="7" t="s">
+      <c r="H259" s="8" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11106,7 +11068,7 @@
       <c r="G260" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H260" s="7" t="s">
+      <c r="H260" s="8" t="s">
         <v>649</v>
       </c>
     </row>
@@ -11132,7 +11094,7 @@
       <c r="G261" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H261" s="7" t="s">
+      <c r="H261" s="8" t="s">
         <v>651</v>
       </c>
     </row>
@@ -11158,7 +11120,7 @@
       <c r="G262" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H262" s="7" t="s">
+      <c r="H262" s="8" t="s">
         <v>653</v>
       </c>
     </row>
@@ -11184,7 +11146,7 @@
       <c r="G263" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H263" s="7" t="s">
+      <c r="H263" s="8" t="s">
         <v>655</v>
       </c>
     </row>
@@ -11210,7 +11172,7 @@
       <c r="G264" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H264" s="7" t="s">
+      <c r="H264" s="8" t="s">
         <v>657</v>
       </c>
     </row>
@@ -11236,7 +11198,7 @@
       <c r="G265" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H265" s="7" t="s">
+      <c r="H265" s="8" t="s">
         <v>659</v>
       </c>
     </row>
@@ -11262,7 +11224,7 @@
       <c r="G266" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H266" s="7" t="s">
+      <c r="H266" s="8" t="s">
         <v>661</v>
       </c>
     </row>
@@ -11288,7 +11250,7 @@
       <c r="G267" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H267" s="7" t="s">
+      <c r="H267" s="8" t="s">
         <v>663</v>
       </c>
     </row>
@@ -11314,7 +11276,7 @@
       <c r="G268" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H268" s="7" t="s">
+      <c r="H268" s="8" t="s">
         <v>665</v>
       </c>
     </row>
@@ -11340,7 +11302,7 @@
       <c r="G269" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H269" s="7" t="s">
+      <c r="H269" s="8" t="s">
         <v>668</v>
       </c>
     </row>
@@ -11366,7 +11328,7 @@
       <c r="G270" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H270" s="7" t="s">
+      <c r="H270" s="8" t="s">
         <v>670</v>
       </c>
     </row>
@@ -11392,7 +11354,7 @@
       <c r="G271" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H271" s="7" t="s">
+      <c r="H271" s="8" t="s">
         <v>673</v>
       </c>
     </row>
@@ -11418,7 +11380,7 @@
       <c r="G272" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H272" s="7" t="s">
+      <c r="H272" s="8" t="s">
         <v>676</v>
       </c>
     </row>
@@ -11444,7 +11406,7 @@
       <c r="G273" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H273" s="7" t="s">
+      <c r="H273" s="8" t="s">
         <v>678</v>
       </c>
     </row>
@@ -11470,7 +11432,7 @@
       <c r="G274" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H274" s="7" t="s">
+      <c r="H274" s="8" t="s">
         <v>680</v>
       </c>
     </row>
@@ -11496,7 +11458,7 @@
       <c r="G275" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H275" s="7" t="s">
+      <c r="H275" s="8" t="s">
         <v>682</v>
       </c>
     </row>
@@ -11522,7 +11484,7 @@
       <c r="G276" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H276" s="7" t="s">
+      <c r="H276" s="8" t="s">
         <v>684</v>
       </c>
     </row>
@@ -11548,7 +11510,7 @@
       <c r="G277" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H277" s="7" t="s">
+      <c r="H277" s="8" t="s">
         <v>686</v>
       </c>
     </row>
@@ -11574,7 +11536,7 @@
       <c r="G278" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H278" s="7" t="s">
+      <c r="H278" s="8" t="s">
         <v>688</v>
       </c>
     </row>
@@ -11600,7 +11562,7 @@
       <c r="G279" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H279" s="7" t="s">
+      <c r="H279" s="8" t="s">
         <v>690</v>
       </c>
     </row>
@@ -11626,7 +11588,7 @@
       <c r="G280" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H280" s="7" t="s">
+      <c r="H280" s="8" t="s">
         <v>692</v>
       </c>
     </row>
@@ -11652,7 +11614,7 @@
       <c r="G281" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H281" s="7" t="s">
+      <c r="H281" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -11678,7 +11640,7 @@
       <c r="G282" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H282" s="7" t="s">
+      <c r="H282" s="8" t="s">
         <v>697</v>
       </c>
     </row>
@@ -11704,7 +11666,7 @@
       <c r="G283" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H283" s="7" t="s">
+      <c r="H283" s="8" t="s">
         <v>699</v>
       </c>
     </row>
@@ -11730,7 +11692,7 @@
       <c r="G284" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H284" s="7" t="s">
+      <c r="H284" s="8" t="s">
         <v>702</v>
       </c>
     </row>
@@ -11756,7 +11718,7 @@
       <c r="G285" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H285" s="7" t="s">
+      <c r="H285" s="8" t="s">
         <v>704</v>
       </c>
     </row>
@@ -11782,7 +11744,7 @@
       <c r="G286" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H286" s="7" t="s">
+      <c r="H286" s="8" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11808,7 +11770,7 @@
       <c r="G287" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H287" s="7" t="s">
+      <c r="H287" s="8" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11834,7 +11796,7 @@
       <c r="G288" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H288" s="7" t="s">
+      <c r="H288" s="8" t="s">
         <v>710</v>
       </c>
     </row>
@@ -11860,7 +11822,7 @@
       <c r="G289" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H289" s="7" t="s">
+      <c r="H289" s="8" t="s">
         <v>712</v>
       </c>
     </row>
@@ -11886,7 +11848,7 @@
       <c r="G290" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H290" s="7" t="s">
+      <c r="H290" s="8" t="s">
         <v>714</v>
       </c>
     </row>
@@ -11912,7 +11874,7 @@
       <c r="G291" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H291" s="7" t="s">
+      <c r="H291" s="8" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11938,7 +11900,7 @@
       <c r="G292" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H292" s="7" t="s">
+      <c r="H292" s="8" t="s">
         <v>718</v>
       </c>
     </row>
@@ -11964,7 +11926,7 @@
       <c r="G293" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H293" s="7" t="s">
+      <c r="H293" s="8" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11990,7 +11952,7 @@
       <c r="G294" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H294" s="7" t="s">
+      <c r="H294" s="8" t="s">
         <v>722</v>
       </c>
     </row>
@@ -12016,7 +11978,7 @@
       <c r="G295" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H295" s="7" t="s">
+      <c r="H295" s="8" t="s">
         <v>724</v>
       </c>
     </row>
@@ -12042,7 +12004,7 @@
       <c r="G296" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H296" s="7" t="s">
+      <c r="H296" s="8" t="s">
         <v>726</v>
       </c>
     </row>
@@ -12068,7 +12030,7 @@
       <c r="G297" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H297" s="7" t="s">
+      <c r="H297" s="8" t="s">
         <v>728</v>
       </c>
     </row>
@@ -12094,7 +12056,7 @@
       <c r="G298" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H298" s="7" t="s">
+      <c r="H298" s="8" t="s">
         <v>730</v>
       </c>
     </row>
@@ -12120,7 +12082,7 @@
       <c r="G299" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H299" s="7" t="s">
+      <c r="H299" s="8" t="s">
         <v>732</v>
       </c>
     </row>
@@ -12146,7 +12108,7 @@
       <c r="G300" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H300" s="7" t="s">
+      <c r="H300" s="8" t="s">
         <v>735</v>
       </c>
     </row>
@@ -12172,7 +12134,7 @@
       <c r="G301" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H301" s="7" t="s">
+      <c r="H301" s="8" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12198,7 +12160,7 @@
       <c r="G302" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H302" s="7" t="s">
+      <c r="H302" s="8" t="s">
         <v>740</v>
       </c>
     </row>
@@ -12224,7 +12186,7 @@
       <c r="G303" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H303" s="7" t="s">
+      <c r="H303" s="8" t="s">
         <v>742</v>
       </c>
     </row>
@@ -12250,7 +12212,7 @@
       <c r="G304" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H304" s="7" t="s">
+      <c r="H304" s="8" t="s">
         <v>744</v>
       </c>
     </row>
@@ -12276,7 +12238,7 @@
       <c r="G305" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H305" s="7" t="s">
+      <c r="H305" s="8" t="s">
         <v>746</v>
       </c>
     </row>
@@ -12302,7 +12264,7 @@
       <c r="G306" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H306" s="7" t="s">
+      <c r="H306" s="8" t="s">
         <v>748</v>
       </c>
     </row>
@@ -12328,7 +12290,7 @@
       <c r="G307" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H307" s="7" t="s">
+      <c r="H307" s="8" t="s">
         <v>750</v>
       </c>
     </row>
@@ -12354,7 +12316,7 @@
       <c r="G308" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H308" s="7" t="s">
+      <c r="H308" s="8" t="s">
         <v>752</v>
       </c>
     </row>
@@ -12380,7 +12342,7 @@
       <c r="G309" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H309" s="7" t="s">
+      <c r="H309" s="8" t="s">
         <v>754</v>
       </c>
     </row>
@@ -12406,7 +12368,7 @@
       <c r="G310" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H310" s="7" t="s">
+      <c r="H310" s="8" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12432,7 +12394,7 @@
       <c r="G311" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H311" s="7" t="s">
+      <c r="H311" s="8" t="s">
         <v>758</v>
       </c>
     </row>
@@ -12458,7 +12420,7 @@
       <c r="G312" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H312" s="7" t="s">
+      <c r="H312" s="8" t="s">
         <v>761</v>
       </c>
     </row>
@@ -12484,7 +12446,7 @@
       <c r="G313" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H313" s="8" t="s">
+      <c r="H313" s="9" t="s">
         <v>764</v>
       </c>
     </row>
@@ -12510,7 +12472,7 @@
       <c r="G314" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H314" s="8" t="s">
+      <c r="H314" s="9" t="s">
         <v>766</v>
       </c>
     </row>
@@ -12536,7 +12498,7 @@
       <c r="G315" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H315" s="8" t="s">
+      <c r="H315" s="9" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12562,7 +12524,7 @@
       <c r="G316" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H316" s="7" t="s">
+      <c r="H316" s="8" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12588,7 +12550,7 @@
       <c r="G317" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H317" s="7" t="s">
+      <c r="H317" s="8" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12614,7 +12576,7 @@
       <c r="G318" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H318" s="7" t="s">
+      <c r="H318" s="8" t="s">
         <v>774</v>
       </c>
     </row>
@@ -12640,7 +12602,7 @@
       <c r="G319" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H319" s="7" t="s">
+      <c r="H319" s="8" t="s">
         <v>776</v>
       </c>
     </row>
@@ -12666,7 +12628,7 @@
       <c r="G320" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H320" s="7" t="s">
+      <c r="H320" s="8" t="s">
         <v>778</v>
       </c>
     </row>
@@ -12692,7 +12654,7 @@
       <c r="G321" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H321" s="7" t="s">
+      <c r="H321" s="8" t="s">
         <v>780</v>
       </c>
     </row>
@@ -12718,7 +12680,7 @@
       <c r="G322" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H322" s="7" t="s">
+      <c r="H322" s="8" t="s">
         <v>782</v>
       </c>
     </row>
@@ -12744,7 +12706,7 @@
       <c r="G323" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H323" s="7" t="s">
+      <c r="H323" s="8" t="s">
         <v>784</v>
       </c>
     </row>
@@ -12770,7 +12732,7 @@
       <c r="G324" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H324" s="7" t="s">
+      <c r="H324" s="8" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12796,7 +12758,7 @@
       <c r="G325" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H325" s="7" t="s">
+      <c r="H325" s="8" t="s">
         <v>789</v>
       </c>
     </row>
@@ -12822,7 +12784,7 @@
       <c r="G326" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H326" s="7" t="s">
+      <c r="H326" s="8" t="s">
         <v>791</v>
       </c>
     </row>
@@ -12848,7 +12810,7 @@
       <c r="G327" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H327" s="7" t="s">
+      <c r="H327" s="8" t="s">
         <v>793</v>
       </c>
     </row>
@@ -12874,7 +12836,7 @@
       <c r="G328" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H328" s="7" t="s">
+      <c r="H328" s="8" t="s">
         <v>795</v>
       </c>
     </row>
@@ -12900,7 +12862,7 @@
       <c r="G329" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H329" s="7" t="s">
+      <c r="H329" s="8" t="s">
         <v>797</v>
       </c>
     </row>
@@ -12926,7 +12888,7 @@
       <c r="G330" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H330" s="7" t="s">
+      <c r="H330" s="8" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12952,7 +12914,7 @@
       <c r="G331" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H331" s="7" t="s">
+      <c r="H331" s="8" t="s">
         <v>801</v>
       </c>
     </row>
@@ -12978,7 +12940,7 @@
       <c r="G332" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H332" s="7" t="s">
+      <c r="H332" s="8" t="s">
         <v>803</v>
       </c>
     </row>
@@ -13004,7 +12966,7 @@
       <c r="G333" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H333" s="7" t="s">
+      <c r="H333" s="8" t="s">
         <v>805</v>
       </c>
     </row>
@@ -13030,7 +12992,7 @@
       <c r="G334" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H334" s="7" t="s">
+      <c r="H334" s="8" t="s">
         <v>807</v>
       </c>
     </row>
@@ -13056,7 +13018,7 @@
       <c r="G335" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H335" s="7" t="s">
+      <c r="H335" s="8" t="s">
         <v>809</v>
       </c>
     </row>
@@ -13082,7 +13044,7 @@
       <c r="G336" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H336" s="7" t="s">
+      <c r="H336" s="8" t="s">
         <v>811</v>
       </c>
     </row>
@@ -13108,7 +13070,7 @@
       <c r="G337" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H337" s="7" t="s">
+      <c r="H337" s="8" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13134,7 +13096,7 @@
       <c r="G338" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H338" s="7" t="s">
+      <c r="H338" s="8" t="s">
         <v>815</v>
       </c>
     </row>
@@ -13160,7 +13122,7 @@
       <c r="G339" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H339" s="7" t="s">
+      <c r="H339" s="8" t="s">
         <v>817</v>
       </c>
     </row>
@@ -13186,7 +13148,7 @@
       <c r="G340" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H340" s="7" t="s">
+      <c r="H340" s="8" t="s">
         <v>820</v>
       </c>
     </row>
@@ -13212,7 +13174,7 @@
       <c r="G341" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H341" s="7" t="s">
+      <c r="H341" s="8" t="s">
         <v>822</v>
       </c>
     </row>
@@ -13238,7 +13200,7 @@
       <c r="G342" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H342" s="7" t="s">
+      <c r="H342" s="8" t="s">
         <v>824</v>
       </c>
     </row>
@@ -13264,7 +13226,7 @@
       <c r="G343" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H343" s="7" t="s">
+      <c r="H343" s="8" t="s">
         <v>826</v>
       </c>
     </row>
@@ -13290,7 +13252,7 @@
       <c r="G344" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H344" s="7" t="s">
+      <c r="H344" s="8" t="s">
         <v>828</v>
       </c>
     </row>
@@ -13316,7 +13278,7 @@
       <c r="G345" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H345" s="7" t="s">
+      <c r="H345" s="8" t="s">
         <v>830</v>
       </c>
     </row>
@@ -13342,7 +13304,7 @@
       <c r="G346" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H346" s="7" t="s">
+      <c r="H346" s="8" t="s">
         <v>832</v>
       </c>
     </row>
@@ -13368,7 +13330,7 @@
       <c r="G347" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H347" s="7" t="s">
+      <c r="H347" s="8" t="s">
         <v>834</v>
       </c>
     </row>
@@ -13394,7 +13356,7 @@
       <c r="G348" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H348" s="7" t="s">
+      <c r="H348" s="8" t="s">
         <v>836</v>
       </c>
     </row>
@@ -13420,7 +13382,7 @@
       <c r="G349" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H349" s="7" t="s">
+      <c r="H349" s="8" t="s">
         <v>838</v>
       </c>
     </row>
@@ -13446,7 +13408,7 @@
       <c r="G350" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H350" s="8" t="s">
+      <c r="H350" s="9" t="s">
         <v>840</v>
       </c>
     </row>
@@ -13472,7 +13434,7 @@
       <c r="G351" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H351" s="7" t="s">
+      <c r="H351" s="8" t="s">
         <v>842</v>
       </c>
     </row>
@@ -13498,11 +13460,11 @@
       <c r="G352" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H352" s="7" t="s">
+      <c r="H352" s="8" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>845</v>
       </c>
@@ -13524,11 +13486,11 @@
       <c r="G353" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H353" s="7" t="s">
+      <c r="H353" s="8" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>847</v>
       </c>
@@ -13550,11 +13512,11 @@
       <c r="G354" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H354" s="7" t="s">
+      <c r="H354" s="8" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>850</v>
       </c>
@@ -13576,11 +13538,11 @@
       <c r="G355" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H355" s="7" t="s">
+      <c r="H355" s="8" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>852</v>
       </c>
@@ -13602,11 +13564,11 @@
       <c r="G356" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H356" s="7" t="s">
+      <c r="H356" s="8" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>854</v>
       </c>
@@ -13628,11 +13590,11 @@
       <c r="G357" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H357" s="7" t="s">
+      <c r="H357" s="8" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>856</v>
       </c>
@@ -13654,15 +13616,11 @@
       <c r="G358" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H358" s="7" t="s">
+      <c r="H358" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="L358" s="9"/>
-      <c r="M358" s="9">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>858</v>
       </c>
@@ -13684,11 +13642,11 @@
       <c r="G359" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H359" s="7" t="s">
+      <c r="H359" s="8" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>860</v>
       </c>
@@ -13710,11 +13668,11 @@
       <c r="G360" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H360" s="7" t="s">
+      <c r="H360" s="8" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>862</v>
       </c>
@@ -13736,11 +13694,11 @@
       <c r="G361" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H361" s="7" t="s">
+      <c r="H361" s="8" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>865</v>
       </c>
@@ -13762,11 +13720,11 @@
       <c r="G362" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H362" s="7" t="s">
+      <c r="H362" s="8" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>867</v>
       </c>
@@ -13788,11 +13746,11 @@
       <c r="G363" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H363" s="7" t="s">
+      <c r="H363" s="8" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>869</v>
       </c>
@@ -13814,11 +13772,11 @@
       <c r="G364" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H364" s="7" t="s">
+      <c r="H364" s="8" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>872</v>
       </c>
@@ -13840,11 +13798,11 @@
       <c r="G365" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H365" s="7" t="s">
+      <c r="H365" s="8" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>874</v>
       </c>
@@ -13866,11 +13824,11 @@
       <c r="G366" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H366" s="7" t="s">
+      <c r="H366" s="8" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>876</v>
       </c>
@@ -13892,11 +13850,11 @@
       <c r="G367" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H367" s="7" t="s">
+      <c r="H367" s="8" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>878</v>
       </c>
@@ -13918,11 +13876,11 @@
       <c r="G368" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H368" s="7" t="s">
+      <c r="H368" s="8" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>881</v>
       </c>
@@ -13944,11 +13902,11 @@
       <c r="G369" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H369" s="7" t="s">
+      <c r="H369" s="8" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>883</v>
       </c>
@@ -13970,11 +13928,11 @@
       <c r="G370" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H370" s="7" t="s">
+      <c r="H370" s="8" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>886</v>
       </c>
@@ -13996,11 +13954,11 @@
       <c r="G371" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H371" s="7" t="s">
+      <c r="H371" s="8" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>888</v>
       </c>
@@ -14022,11 +13980,11 @@
       <c r="G372" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H372" s="7" t="s">
+      <c r="H372" s="8" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>890</v>
       </c>
@@ -14048,11 +14006,11 @@
       <c r="G373" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H373" s="7" t="s">
+      <c r="H373" s="8" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>892</v>
       </c>
@@ -14074,11 +14032,11 @@
       <c r="G374" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H374" s="7" t="s">
+      <c r="H374" s="8" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>894</v>
       </c>
@@ -14100,11 +14058,11 @@
       <c r="G375" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H375" s="7" t="s">
+      <c r="H375" s="8" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>896</v>
       </c>
@@ -14126,11 +14084,11 @@
       <c r="G376" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H376" s="7" t="s">
+      <c r="H376" s="8" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>900</v>
       </c>
@@ -14152,11 +14110,11 @@
       <c r="G377" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H377" s="7" t="s">
+      <c r="H377" s="8" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>902</v>
       </c>
@@ -14178,11 +14136,11 @@
       <c r="G378" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H378" s="7" t="s">
+      <c r="H378" s="8" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>904</v>
       </c>
@@ -14204,11 +14162,11 @@
       <c r="G379" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H379" s="7" t="s">
+      <c r="H379" s="8" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>906</v>
       </c>
@@ -14230,11 +14188,11 @@
       <c r="G380" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H380" s="7" t="s">
+      <c r="H380" s="8" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>908</v>
       </c>
@@ -14256,11 +14214,11 @@
       <c r="G381" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H381" s="7" t="s">
+      <c r="H381" s="8" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>910</v>
       </c>
@@ -14282,12 +14240,11 @@
       <c r="G382" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H382" s="7" t="s">
+      <c r="H382" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="M382" s="10"/>
-    </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>912</v>
       </c>
@@ -14309,12 +14266,11 @@
       <c r="G383" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H383" s="7" t="s">
+      <c r="H383" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="R383" s="11"/>
-    </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>914</v>
       </c>
@@ -14336,11 +14292,11 @@
       <c r="G384" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H384" s="7" t="s">
+      <c r="H384" s="8" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>916</v>
       </c>
@@ -14362,11 +14318,11 @@
       <c r="G385" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H385" s="7" t="s">
+      <c r="H385" s="8" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>918</v>
       </c>
@@ -14388,11 +14344,11 @@
       <c r="G386" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H386" s="7" t="s">
+      <c r="H386" s="8" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>920</v>
       </c>
@@ -14414,11 +14370,11 @@
       <c r="G387" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H387" s="7" t="s">
+      <c r="H387" s="8" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>923</v>
       </c>
@@ -14440,11 +14396,11 @@
       <c r="G388" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H388" s="7" t="s">
+      <c r="H388" s="8" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>925</v>
       </c>
@@ -14466,11 +14422,11 @@
       <c r="G389" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H389" s="7" t="s">
+      <c r="H389" s="8" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>927</v>
       </c>
@@ -14492,12 +14448,12 @@
       <c r="G390" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H390" s="7" t="s">
+      <c r="H390" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="V390" s="11"/>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="K390" s="6"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>929</v>
       </c>
@@ -14519,11 +14475,11 @@
       <c r="G391" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H391" s="7" t="s">
+      <c r="H391" s="8" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>931</v>
       </c>
@@ -14545,11 +14501,11 @@
       <c r="G392" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H392" s="7" t="s">
+      <c r="H392" s="8" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>933</v>
       </c>
@@ -14571,11 +14527,11 @@
       <c r="G393" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H393" s="7" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H393" s="8" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>934</v>
       </c>
@@ -14597,11 +14553,11 @@
       <c r="G394" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H394" s="7" t="s">
+      <c r="H394" s="8" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>936</v>
       </c>
@@ -14623,11 +14579,11 @@
       <c r="G395" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H395" s="7" t="s">
+      <c r="H395" s="8" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>938</v>
       </c>
@@ -14649,11 +14605,11 @@
       <c r="G396" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H396" s="7" t="s">
+      <c r="H396" s="8" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>940</v>
       </c>
@@ -14675,11 +14631,11 @@
       <c r="G397" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H397" s="7" t="s">
+      <c r="H397" s="8" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>942</v>
       </c>
@@ -14701,11 +14657,11 @@
       <c r="G398" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H398" s="7" t="s">
+      <c r="H398" s="8" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>944</v>
       </c>
@@ -14727,11 +14683,11 @@
       <c r="G399" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H399" s="7" t="s">
+      <c r="H399" s="8" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>946</v>
       </c>
@@ -14753,7 +14709,7 @@
       <c r="G400" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H400" s="7" t="s">
+      <c r="H400" s="8" t="s">
         <v>947</v>
       </c>
     </row>
@@ -14779,7 +14735,7 @@
       <c r="G401" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H401" s="7" t="s">
+      <c r="H401" s="8" t="s">
         <v>950</v>
       </c>
     </row>
@@ -14805,7 +14761,7 @@
       <c r="G402" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H402" s="7" t="s">
+      <c r="H402" s="8" t="s">
         <v>952</v>
       </c>
     </row>
@@ -14831,7 +14787,7 @@
       <c r="G403" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H403" s="7" t="s">
+      <c r="H403" s="8" t="s">
         <v>954</v>
       </c>
     </row>
@@ -14857,7 +14813,7 @@
       <c r="G404" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H404" s="7" t="s">
+      <c r="H404" s="8" t="s">
         <v>956</v>
       </c>
     </row>
@@ -14883,7 +14839,7 @@
       <c r="G405" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H405" s="7" t="s">
+      <c r="H405" s="8" t="s">
         <v>958</v>
       </c>
     </row>
@@ -14909,7 +14865,7 @@
       <c r="G406" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H406" s="7" t="s">
+      <c r="H406" s="8" t="s">
         <v>961</v>
       </c>
     </row>
@@ -14935,7 +14891,7 @@
       <c r="G407" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H407" s="7" t="s">
+      <c r="H407" s="8" t="s">
         <v>963</v>
       </c>
     </row>
@@ -14961,7 +14917,7 @@
       <c r="G408" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H408" s="7" t="s">
+      <c r="H408" s="8" t="s">
         <v>965</v>
       </c>
     </row>
@@ -14987,7 +14943,7 @@
       <c r="G409" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H409" s="7" t="s">
+      <c r="H409" s="8" t="s">
         <v>967</v>
       </c>
     </row>
@@ -15013,7 +14969,7 @@
       <c r="G410" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H410" s="7" t="s">
+      <c r="H410" s="8" t="s">
         <v>970</v>
       </c>
     </row>
@@ -15039,7 +14995,7 @@
       <c r="G411" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H411" s="7" t="s">
+      <c r="H411" s="8" t="s">
         <v>972</v>
       </c>
     </row>
@@ -15065,7 +15021,7 @@
       <c r="G412" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H412" s="7" t="s">
+      <c r="H412" s="8" t="s">
         <v>974</v>
       </c>
     </row>
@@ -15091,7 +15047,7 @@
       <c r="G413" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H413" s="7" t="s">
+      <c r="H413" s="8" t="s">
         <v>976</v>
       </c>
     </row>
@@ -15117,7 +15073,7 @@
       <c r="G414" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H414" s="7" t="s">
+      <c r="H414" s="8" t="s">
         <v>978</v>
       </c>
     </row>
@@ -15143,7 +15099,7 @@
       <c r="G415" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H415" s="7" t="s">
+      <c r="H415" s="8" t="s">
         <v>980</v>
       </c>
     </row>
@@ -15169,7 +15125,7 @@
       <c r="G416" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H416" s="7" t="s">
+      <c r="H416" s="8" t="s">
         <v>982</v>
       </c>
     </row>
@@ -15195,7 +15151,7 @@
       <c r="G417" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H417" s="7" t="s">
+      <c r="H417" s="8" t="s">
         <v>984</v>
       </c>
     </row>
@@ -15221,7 +15177,7 @@
       <c r="G418" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H418" s="7" t="s">
+      <c r="H418" s="8" t="s">
         <v>986</v>
       </c>
     </row>
@@ -15247,7 +15203,7 @@
       <c r="G419" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H419" s="7" t="s">
+      <c r="H419" s="8" t="s">
         <v>989</v>
       </c>
     </row>
@@ -15273,7 +15229,7 @@
       <c r="G420" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H420" s="7" t="s">
+      <c r="H420" s="8" t="s">
         <v>991</v>
       </c>
     </row>
@@ -15299,7 +15255,7 @@
       <c r="G421" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H421" s="7" t="s">
+      <c r="H421" s="8" t="s">
         <v>993</v>
       </c>
     </row>
@@ -15325,7 +15281,7 @@
       <c r="G422" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H422" s="7" t="s">
+      <c r="H422" s="8" t="s">
         <v>995</v>
       </c>
     </row>
@@ -15351,7 +15307,7 @@
       <c r="G423" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H423" s="7" t="s">
+      <c r="H423" s="8" t="s">
         <v>997</v>
       </c>
     </row>
@@ -15377,7 +15333,7 @@
       <c r="G424" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H424" s="7" t="s">
+      <c r="H424" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -15403,7 +15359,7 @@
       <c r="G425" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H425" s="7" t="s">
+      <c r="H425" s="8" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -15429,7 +15385,7 @@
       <c r="G426" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H426" s="7" t="s">
+      <c r="H426" s="8" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -15455,7 +15411,7 @@
       <c r="G427" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H427" s="7" t="s">
+      <c r="H427" s="8" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -15481,7 +15437,7 @@
       <c r="G428" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H428" s="7" t="s">
+      <c r="H428" s="8" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -15507,7 +15463,7 @@
       <c r="G429" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H429" s="7" t="s">
+      <c r="H429" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -15533,7 +15489,7 @@
       <c r="G430" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H430" s="7" t="s">
+      <c r="H430" s="8" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -15559,7 +15515,7 @@
       <c r="G431" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H431" s="7" t="s">
+      <c r="H431" s="8" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -15585,7 +15541,7 @@
       <c r="G432" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H432" s="7" t="s">
+      <c r="H432" s="8" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -15611,7 +15567,7 @@
       <c r="G433" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H433" s="7" t="s">
+      <c r="H433" s="8" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -15637,7 +15593,7 @@
       <c r="G434" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H434" s="7" t="s">
+      <c r="H434" s="8" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -15663,7 +15619,7 @@
       <c r="G435" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H435" s="7" t="s">
+      <c r="H435" s="8" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -15689,7 +15645,7 @@
       <c r="G436" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H436" s="7" t="s">
+      <c r="H436" s="8" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -15715,7 +15671,7 @@
       <c r="G437" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H437" s="7" t="s">
+      <c r="H437" s="8" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -15741,7 +15697,7 @@
       <c r="G438" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H438" s="7" t="s">
+      <c r="H438" s="8" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -15767,7 +15723,7 @@
       <c r="G439" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H439" s="7" t="s">
+      <c r="H439" s="8" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -15793,7 +15749,7 @@
       <c r="G440" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H440" s="7" t="s">
+      <c r="H440" s="8" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -15819,7 +15775,7 @@
       <c r="G441" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H441" s="7" t="s">
+      <c r="H441" s="8" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -15845,7 +15801,7 @@
       <c r="G442" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H442" s="7" t="s">
+      <c r="H442" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -15871,7 +15827,7 @@
       <c r="G443" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H443" s="7" t="s">
+      <c r="H443" s="8" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -15897,7 +15853,7 @@
       <c r="G444" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H444" s="7" t="s">
+      <c r="H444" s="8" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -15923,7 +15879,7 @@
       <c r="G445" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H445" s="7" t="s">
+      <c r="H445" s="8" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -15949,7 +15905,7 @@
       <c r="G446" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H446" s="7" t="s">
+      <c r="H446" s="8" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -15975,7 +15931,7 @@
       <c r="G447" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H447" s="7" t="s">
+      <c r="H447" s="8" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -16001,7 +15957,7 @@
       <c r="G448" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H448" s="7" t="s">
+      <c r="H448" s="8" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -16027,7 +15983,7 @@
       <c r="G449" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H449" s="7" t="s">
+      <c r="H449" s="8" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -16053,7 +16009,7 @@
       <c r="G450" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H450" s="7" t="s">
+      <c r="H450" s="8" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -16079,7 +16035,7 @@
       <c r="G451" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H451" s="7" t="s">
+      <c r="H451" s="8" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -16105,7 +16061,7 @@
       <c r="G452" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H452" s="7" t="s">
+      <c r="H452" s="8" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -16131,7 +16087,7 @@
       <c r="G453" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H453" s="7" t="s">
+      <c r="H453" s="8" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -16157,7 +16113,7 @@
       <c r="G454" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H454" s="7" t="s">
+      <c r="H454" s="8" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -16183,7 +16139,7 @@
       <c r="G455" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H455" s="7" t="s">
+      <c r="H455" s="8" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -16209,7 +16165,7 @@
       <c r="G456" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H456" s="7" t="s">
+      <c r="H456" s="8" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -16235,7 +16191,7 @@
       <c r="G457" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H457" s="7" t="s">
+      <c r="H457" s="8" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -16261,7 +16217,7 @@
       <c r="G458" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H458" s="7" t="s">
+      <c r="H458" s="8" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -16287,7 +16243,7 @@
       <c r="G459" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H459" s="7" t="s">
+      <c r="H459" s="8" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -16313,7 +16269,7 @@
       <c r="G460" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H460" s="7" t="s">
+      <c r="H460" s="8" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -16339,7 +16295,7 @@
       <c r="G461" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H461" s="7" t="s">
+      <c r="H461" s="8" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -16365,7 +16321,7 @@
       <c r="G462" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H462" s="7" t="s">
+      <c r="H462" s="8" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -16391,7 +16347,7 @@
       <c r="G463" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="H463" s="6"/>
+      <c r="H463" s="10"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
@@ -16415,7 +16371,7 @@
       <c r="G464" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H464" s="7" t="s">
+      <c r="H464" s="8" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -16441,7 +16397,7 @@
       <c r="G465" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H465" s="7" t="s">
+      <c r="H465" s="8" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -16467,7 +16423,7 @@
       <c r="G466" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H466" s="7" t="s">
+      <c r="H466" s="8" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -16493,7 +16449,7 @@
       <c r="G467" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H467" s="7" t="s">
+      <c r="H467" s="8" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -16519,7 +16475,7 @@
       <c r="G468" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H468" s="7" t="s">
+      <c r="H468" s="8" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -16545,8 +16501,8 @@
       <c r="G469" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H469" s="7" t="s">
-        <v>1272</v>
+      <c r="H469" s="8" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -16571,7 +16527,7 @@
       <c r="G470" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H470" s="7" t="s">
+      <c r="H470" s="8" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -16597,7 +16553,7 @@
       <c r="G471" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H471" s="7" t="s">
+      <c r="H471" s="8" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -16623,7 +16579,7 @@
       <c r="G472" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H472" s="13" t="s">
+      <c r="H472" s="11" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -16649,7 +16605,7 @@
       <c r="G473" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H473" s="7" t="s">
+      <c r="H473" s="8" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -16675,7 +16631,7 @@
       <c r="G474" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H474" s="7" t="s">
+      <c r="H474" s="8" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -16701,7 +16657,7 @@
       <c r="G475" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H475" s="7" t="s">
+      <c r="H475" s="8" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -16727,7 +16683,7 @@
       <c r="G476" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H476" s="7" t="s">
+      <c r="H476" s="8" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -16753,7 +16709,7 @@
       <c r="G477" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H477" s="7" t="s">
+      <c r="H477" s="8" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -16779,7 +16735,7 @@
       <c r="G478" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H478" s="7" t="s">
+      <c r="H478" s="8" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -16805,7 +16761,7 @@
       <c r="G479" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H479" s="7" t="s">
+      <c r="H479" s="8" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -16831,7 +16787,7 @@
       <c r="G480" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H480" s="7" t="s">
+      <c r="H480" s="8" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -16857,7 +16813,7 @@
       <c r="G481" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H481" s="7" t="s">
+      <c r="H481" s="8" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -16883,7 +16839,7 @@
       <c r="G482" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H482" s="7" t="s">
+      <c r="H482" s="8" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -16909,7 +16865,7 @@
       <c r="G483" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H483" s="7" t="s">
+      <c r="H483" s="8" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -16935,7 +16891,7 @@
       <c r="G484" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H484" s="7" t="s">
+      <c r="H484" s="8" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -16961,7 +16917,7 @@
       <c r="G485" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H485" s="7" t="s">
+      <c r="H485" s="8" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -16987,7 +16943,7 @@
       <c r="G486" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H486" s="7" t="s">
+      <c r="H486" s="8" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -17013,7 +16969,7 @@
       <c r="G487" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H487" s="7" t="s">
+      <c r="H487" s="8" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -17039,7 +16995,7 @@
       <c r="G488" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H488" s="7" t="s">
+      <c r="H488" s="8" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -17065,7 +17021,7 @@
       <c r="G489" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H489" s="7" t="s">
+      <c r="H489" s="8" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -17091,7 +17047,7 @@
       <c r="G490" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H490" s="7" t="s">
+      <c r="H490" s="8" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -17117,7 +17073,7 @@
       <c r="G491" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H491" s="7" t="s">
+      <c r="H491" s="8" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -17143,7 +17099,7 @@
       <c r="G492" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H492" s="7" t="s">
+      <c r="H492" s="8" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -17169,7 +17125,7 @@
       <c r="G493" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H493" s="7" t="s">
+      <c r="H493" s="8" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -17195,7 +17151,7 @@
       <c r="G494" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H494" s="7" t="s">
+      <c r="H494" s="8" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -17221,7 +17177,7 @@
       <c r="G495" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H495" s="7" t="s">
+      <c r="H495" s="8" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -17247,11 +17203,11 @@
       <c r="G496" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H496" s="7" t="s">
+      <c r="H496" s="8" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
         <v>1157</v>
       </c>
@@ -17273,11 +17229,11 @@
       <c r="G497" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H497" s="7" t="s">
+      <c r="H497" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
         <v>1159</v>
       </c>
@@ -17299,11 +17255,11 @@
       <c r="G498" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H498" s="7" t="s">
+      <c r="H498" s="8" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>1161</v>
       </c>
@@ -17325,11 +17281,11 @@
       <c r="G499" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H499" s="7" t="s">
+      <c r="H499" s="8" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>1163</v>
       </c>
@@ -17351,11 +17307,11 @@
       <c r="G500" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H500" s="7" t="s">
+      <c r="H500" s="8" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>1165</v>
       </c>
@@ -17377,11 +17333,11 @@
       <c r="G501" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H501" s="7" t="s">
+      <c r="H501" s="8" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
         <v>1167</v>
       </c>
@@ -17403,13 +17359,11 @@
       <c r="G502" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H502" s="7" t="s">
+      <c r="H502" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="L502" s="12"/>
-      <c r="M502" s="12"/>
-    </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
         <v>1169</v>
       </c>
@@ -17431,13 +17385,11 @@
       <c r="G503" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H503" s="7" t="s">
+      <c r="H503" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="L503" s="12"/>
-      <c r="M503" s="12"/>
-    </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>1171</v>
       </c>
@@ -17459,13 +17411,11 @@
       <c r="G504" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H504" s="7" t="s">
+      <c r="H504" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="L504" s="12"/>
-      <c r="M504" s="12"/>
-    </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
         <v>1173</v>
       </c>
@@ -17487,13 +17437,11 @@
       <c r="G505" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H505" s="7" t="s">
+      <c r="H505" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="L505" s="12"/>
-      <c r="M505" s="12"/>
-    </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>1175</v>
       </c>
@@ -17515,13 +17463,11 @@
       <c r="G506" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H506" s="7" t="s">
+      <c r="H506" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="L506" s="12"/>
-      <c r="M506" s="12"/>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
         <v>1178</v>
       </c>
@@ -17543,13 +17489,11 @@
       <c r="G507" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H507" s="7" t="s">
+      <c r="H507" s="8" t="s">
         <v>1179</v>
       </c>
-      <c r="L507" s="12"/>
-      <c r="M507" s="12"/>
-    </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
         <v>1180</v>
       </c>
@@ -17571,11 +17515,11 @@
       <c r="G508" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H508" s="7" t="s">
+      <c r="H508" s="8" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
         <v>1183</v>
       </c>
@@ -17597,11 +17541,11 @@
       <c r="G509" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H509" s="7" t="s">
+      <c r="H509" s="8" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
         <v>1185</v>
       </c>
@@ -17623,11 +17567,11 @@
       <c r="G510" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H510" s="7" t="s">
+      <c r="H510" s="8" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
         <v>1187</v>
       </c>
@@ -17649,11 +17593,11 @@
       <c r="G511" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H511" s="7" t="s">
+      <c r="H511" s="8" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
         <v>1190</v>
       </c>
@@ -17675,7 +17619,7 @@
       <c r="G512" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H512" s="7" t="s">
+      <c r="H512" s="8" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -17701,7 +17645,7 @@
       <c r="G513" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H513" s="7" t="s">
+      <c r="H513" s="8" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -17727,7 +17671,7 @@
       <c r="G514" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H514" s="7" t="s">
+      <c r="H514" s="8" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -17753,7 +17697,7 @@
       <c r="G515" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H515" s="7" t="s">
+      <c r="H515" s="8" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -17779,7 +17723,7 @@
       <c r="G516" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H516" s="7" t="s">
+      <c r="H516" s="8" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -17805,7 +17749,7 @@
       <c r="G517" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H517" s="7" t="s">
+      <c r="H517" s="8" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -17831,7 +17775,7 @@
       <c r="G518" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H518" s="7" t="s">
+      <c r="H518" s="8" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -17857,7 +17801,7 @@
       <c r="G519" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H519" s="7" t="s">
+      <c r="H519" s="8" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -17883,7 +17827,7 @@
       <c r="G520" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H520" s="7" t="s">
+      <c r="H520" s="8" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -17909,7 +17853,7 @@
       <c r="G521" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H521" s="8" t="s">
+      <c r="H521" s="9" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -17935,7 +17879,7 @@
       <c r="G522" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H522" s="7" t="s">
+      <c r="H522" s="8" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -17961,7 +17905,7 @@
       <c r="G523" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H523" s="7" t="s">
+      <c r="H523" s="8" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -17987,7 +17931,7 @@
       <c r="G524" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H524" s="7" t="s">
+      <c r="H524" s="8" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -18013,7 +17957,7 @@
       <c r="G525" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H525" s="7" t="s">
+      <c r="H525" s="8" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -18039,7 +17983,7 @@
       <c r="G526" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H526" s="7" t="s">
+      <c r="H526" s="8" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -18065,7 +18009,7 @@
       <c r="G527" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H527" s="7" t="s">
+      <c r="H527" s="8" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -18091,7 +18035,7 @@
       <c r="G528" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H528" s="7" t="s">
+      <c r="H528" s="8" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -18117,7 +18061,7 @@
       <c r="G529" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H529" s="7" t="s">
+      <c r="H529" s="8" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -18143,7 +18087,7 @@
       <c r="G530" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H530" s="7" t="s">
+      <c r="H530" s="8" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -18169,7 +18113,7 @@
       <c r="G531" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H531" s="7" t="s">
+      <c r="H531" s="8" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -18195,7 +18139,7 @@
       <c r="G532" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H532" s="7" t="s">
+      <c r="H532" s="8" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -18221,7 +18165,7 @@
       <c r="G533" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H533" s="14" t="s">
+      <c r="H533" s="8" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -18247,7 +18191,7 @@
       <c r="G534" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H534" s="7" t="s">
+      <c r="H534" s="8" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -18273,7 +18217,7 @@
       <c r="G535" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H535" s="7" t="s">
+      <c r="H535" s="8" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -18299,7 +18243,7 @@
       <c r="G536" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H536" s="7" t="s">
+      <c r="H536" s="8" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -18325,7 +18269,7 @@
       <c r="G537" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H537" s="14" t="s">
+      <c r="H537" s="8" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -18351,7 +18295,7 @@
       <c r="G538" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H538" s="14" t="s">
+      <c r="H538" s="8" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -18377,7 +18321,7 @@
       <c r="G539" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H539" s="14" t="s">
+      <c r="H539" s="8" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -18403,7 +18347,7 @@
       <c r="G540" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H540" s="14" t="s">
+      <c r="H540" s="8" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -18429,7 +18373,7 @@
       <c r="G541" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H541" s="14" t="s">
+      <c r="H541" s="8" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -18455,7 +18399,7 @@
       <c r="G542" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H542" s="14" t="s">
+      <c r="H542" s="8" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -18481,7 +18425,7 @@
       <c r="G543" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H543" s="14" t="s">
+      <c r="H543" s="8" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -18507,7 +18451,7 @@
       <c r="G544" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H544" s="14" t="s">
+      <c r="H544" s="8" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -18533,7 +18477,7 @@
       <c r="G545" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H545" s="14" t="s">
+      <c r="H545" s="8" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -18559,7 +18503,7 @@
       <c r="G546" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H546" s="14" t="s">
+      <c r="H546" s="8" t="s">
         <v>1266</v>
       </c>
     </row>
